--- a/DB定義書.xlsx
+++ b/DB定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="品目一覧マスタテーブル" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
   <si>
     <t>テーブル和名</t>
     <rPh sb="4" eb="6">
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>item_list_m</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -230,10 +226,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>purchase_history</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザの購入履歴の一覧を保持する</t>
     <rPh sb="4" eb="6">
       <t>コウニュウ</t>
@@ -278,38 +270,54 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>item_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>YYYY-MM-DD</t>
-  </si>
-  <si>
-    <t>DATE</t>
+    <t>単価</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unit_price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_item_list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>DECIMAL(7,0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DECIMAL(10,0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YYYY/MM/DD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>payment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pay_date</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">
-amount_of_money</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>quantity</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>単価</t>
-    <rPh sb="0" eb="2">
-      <t>タンカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>unit_price</t>
+amount</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -711,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -738,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -751,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -773,25 +781,25 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -799,31 +807,31 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -831,31 +839,31 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -873,7 +881,7 @@
   <dimension ref="A2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -883,7 +891,7 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -891,10 +899,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -905,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -916,7 +924,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -927,7 +935,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -938,7 +946,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -949,7 +957,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -962,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F21:F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -971,6 +979,7 @@
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.875" customWidth="1"/>
     <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
@@ -982,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -990,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1003,7 +1012,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1025,25 +1034,25 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -1051,31 +1060,31 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -1083,31 +1092,31 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -1115,31 +1124,31 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1147,31 +1156,31 @@
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1">
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -1179,31 +1188,31 @@
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1211,31 +1220,31 @@
         <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E13" s="1">
         <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/DB定義書.xlsx
+++ b/DB定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="品目一覧マスタテーブル" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="49">
   <si>
     <t>テーブル和名</t>
     <rPh sb="4" eb="6">
@@ -70,14 +70,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -281,43 +273,55 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>DECIMAL(7,0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DECIMAL(10,0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YYYY/MM/DD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_item_list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pay_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>unit_price</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>quantity</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>m_item_list</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
-    <t>DECIMAL(7,0)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DECIMAL(10,0)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>YYYY/MM/DD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>payment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pay_date</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">
 amount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>payment</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -719,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -759,7 +763,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -781,25 +785,25 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -807,31 +811,31 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -839,31 +843,31 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -881,7 +885,7 @@
   <dimension ref="A2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -891,7 +895,7 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -899,10 +903,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -913,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -924,7 +928,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -935,7 +939,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -946,7 +950,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -957,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -970,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -991,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -999,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1012,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1034,25 +1038,25 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -1060,31 +1064,31 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -1092,31 +1096,31 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -1124,31 +1128,31 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1156,31 +1160,31 @@
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E11" s="1">
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -1188,31 +1192,31 @@
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1220,31 +1224,31 @@
         <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1">
         <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/DB定義書.xlsx
+++ b/DB定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="品目一覧マスタテーブル" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
   <si>
     <t>テーブル和名</t>
     <rPh sb="4" eb="6">
@@ -284,10 +284,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>YYYY/MM/DD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>m_item_list</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -297,14 +293,6 @@
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pay_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -322,6 +310,26 @@
   </si>
   <si>
     <t>payment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pay_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YYYY-MM-DD HH:MM:SS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -723,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -750,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -819,8 +827,8 @@
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1">
-        <v>3</v>
+      <c r="E8" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>18</v>
@@ -846,7 +854,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>17</v>
@@ -974,7 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -984,7 +992,7 @@
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.75" customWidth="1"/>
     <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.875" customWidth="1"/>
     <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
@@ -1003,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1067,13 +1075,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1">
-        <v>5</v>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>18</v>
@@ -1099,13 +1107,13 @@
         <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>13</v>
@@ -1131,13 +1139,13 @@
         <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="1">
-        <v>3</v>
+      <c r="E10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>13</v>
@@ -1163,7 +1171,7 @@
         <v>35</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>37</v>
@@ -1195,7 +1203,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>20</v>
@@ -1227,7 +1235,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>38</v>

--- a/DB定義書.xlsx
+++ b/DB定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="14805" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="品目一覧マスタテーブル" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="50">
   <si>
     <t>テーブル和名</t>
     <rPh sb="4" eb="6">
@@ -262,29 +262,49 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>単価</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>DECIMAL(10,0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>payment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YYYY-MM-DD HH:MM:SS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_item_list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>item_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>単価</t>
-    <rPh sb="0" eb="2">
-      <t>タンカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
-    <t>DECIMAL(7,0)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DECIMAL(10,0)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>m_item_list</t>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pay_date</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -292,10 +312,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>unit_price</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -304,32 +320,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">
-amount</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>payment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pay_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>YYYY-MM-DD HH:MM:SS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item_id</t>
+    <t>amount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DECIMAL(6,0)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -731,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -758,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -822,13 +817,13 @@
         <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>18</v>
@@ -854,7 +849,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>17</v>
@@ -893,7 +888,7 @@
   <dimension ref="A2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -982,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1011,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1075,13 +1070,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>18</v>
@@ -1107,13 +1102,13 @@
         <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>13</v>
@@ -1139,13 +1134,13 @@
         <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>13</v>
@@ -1168,16 +1163,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
@@ -1203,7 +1198,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>20</v>
@@ -1235,10 +1230,10 @@
         <v>31</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" s="1">
         <v>10</v>
